--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97577F23-C057-42F4-B163-FE07A8E84DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23538FF-DF85-415B-ABE5-6FA5579E08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6158" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6160" uniqueCount="1021">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3405,6 +3405,9 @@
   </si>
   <si>
     <t>132kV Trabsformer (GM)</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3508,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3516,6 +3519,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3531,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3582,6 +3591,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3668,9 +3678,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3708,7 +3718,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3814,7 +3824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3956,7 +3966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3964,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,6 +4481,14 @@
       </c>
       <c r="B62" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -12650,14 +12668,15 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -14342,17 +14361,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -18051,7 +18070,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="79.7109375" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
     <col min="5" max="1025" width="8.85546875" customWidth="1"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\COLCIENCIAS\2021\san andres\INICIO PROYECTO\Insumos Plataforma\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23538FF-DF85-415B-ABE5-6FA5579E08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA68A9-73CD-4ED8-9F8C-5E0D94D80583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="210" activeTab="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6160" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6227" uniqueCount="1021">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3407,7 +3407,7 @@
     <t>132kV Trabsformer (GM)</t>
   </si>
   <si>
-    <t>PRUEBA</t>
+    <t>Transformador 34kV (GM)</t>
   </si>
 </sst>
 </file>
@@ -3418,7 +3418,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3507,6 +3507,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3528,7 +3534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3536,11 +3542,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3592,6 +3658,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3976,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,67 +4470,67 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
+      <c r="B51" s="26" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4538,7 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4546,7 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,23 +4554,23 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -12668,15 +12750,14 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -14359,19 +14440,19 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -15577,42 +15658,62 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61">
-        <v>263015</v>
-      </c>
-      <c r="C61">
+      <c r="A61" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B61" s="26">
+        <v>134796</v>
+      </c>
+      <c r="C61" s="26">
         <v>23502</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="26">
         <v>17048</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="26">
         <v>28940</v>
       </c>
-      <c r="F61">
-        <v>204285</v>
+      <c r="F61" s="26">
+        <v>157188</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>263015</v>
+      </c>
+      <c r="C62">
+        <v>23502</v>
+      </c>
+      <c r="D62">
+        <v>17048</v>
+      </c>
+      <c r="E62">
+        <v>28940</v>
+      </c>
+      <c r="F62">
+        <v>204285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>218932</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>36171</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>35095</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>230441</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>564721</v>
       </c>
     </row>
@@ -18070,7 +18171,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="79.7109375" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
     <col min="5" max="1025" width="8.85546875" customWidth="1"/>
@@ -19385,7 +19486,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22036,10 +22137,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23121,36 +23222,36 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107">
+      <c r="A107" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" s="26">
         <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" t="s">
-        <v>380</v>
-      </c>
-      <c r="C108">
-        <v>60</v>
+      <c r="A108" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" s="26">
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>212</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -23158,7 +23259,7 @@
         <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="C110">
         <v>60</v>
@@ -23166,24 +23267,24 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C111">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>363</v>
+        <v>212</v>
       </c>
       <c r="C112">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -23191,10 +23292,10 @@
         <v>71</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C113">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -23202,7 +23303,7 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C114">
         <v>50</v>
@@ -23213,10 +23314,10 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C115">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -23224,7 +23325,7 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="C116">
         <v>50</v>
@@ -23232,24 +23333,24 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C117">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="C118">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -23257,10 +23358,10 @@
         <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C119">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -23268,10 +23369,10 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -23279,40 +23380,40 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C121">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>370</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" t="s">
-        <v>373</v>
+        <v>69</v>
       </c>
       <c r="C124">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -23320,7 +23421,7 @@
         <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C125">
         <v>100</v>
@@ -23331,7 +23432,7 @@
         <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C126">
         <v>100</v>
@@ -23339,24 +23440,24 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C127">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C128">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -23364,10 +23465,10 @@
         <v>76</v>
       </c>
       <c r="B129" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C129">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -23375,32 +23476,32 @@
         <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C130">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C131">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C132">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -23408,10 +23509,10 @@
         <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C133">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -23419,39 +23520,45 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C134">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B135" t="s">
+        <v>374</v>
       </c>
       <c r="C135">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>375</v>
       </c>
       <c r="C136">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C137">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C138">
         <v>60</v>
@@ -23459,18 +23566,15 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C139">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>83</v>
-      </c>
-      <c r="B140" t="s">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="C140">
         <v>60</v>
@@ -23478,13 +23582,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>83</v>
-      </c>
-      <c r="B141" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="C141">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -23492,9 +23593,31 @@
         <v>83</v>
       </c>
       <c r="B142" t="s">
+        <v>380</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" t="s">
+        <v>381</v>
+      </c>
+      <c r="C143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" t="s">
         <v>212</v>
       </c>
-      <c r="C142">
+      <c r="C144">
         <v>60</v>
       </c>
     </row>
@@ -23614,7 +23737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-C700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -24394,7 +24517,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25599,10 +25722,10 @@
 
 <file path=xl/worksheets/sheet220.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27147,35 +27270,35 @@
         <v>87698</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>742</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B60" s="26">
         <v>45</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="26">
         <v>50</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="26">
         <v>5</v>
       </c>
-      <c r="E60">
-        <v>61270</v>
-      </c>
-      <c r="F60">
-        <v>153178</v>
-      </c>
-      <c r="G60">
-        <v>612709</v>
-      </c>
-      <c r="H60">
-        <v>134796</v>
+      <c r="E60" s="26">
+        <v>39863</v>
+      </c>
+      <c r="F60" s="26">
+        <v>99657</v>
+      </c>
+      <c r="G60" s="26">
+        <v>398629</v>
+      </c>
+      <c r="H60" s="26">
+        <v>87698</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>742</v>
       </c>
       <c r="B61">
         <v>45</v>
@@ -27187,15 +27310,41 @@
         <v>5</v>
       </c>
       <c r="E61">
+        <v>61270</v>
+      </c>
+      <c r="F61">
+        <v>153178</v>
+      </c>
+      <c r="G61">
+        <v>612709</v>
+      </c>
+      <c r="H61">
+        <v>134796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
         <v>119552</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>298880</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>1195522</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>263015</v>
       </c>
     </row>
@@ -27207,10 +27356,10 @@
 
 <file path=xl/worksheets/sheet221.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D100-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27832,195 +27981,197 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" t="s">
-        <v>760</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="A48" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="C48" s="30">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="29">
+        <v>10</v>
+      </c>
+      <c r="E48" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>760</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
+      <c r="A49" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C49" s="32">
+        <v>10</v>
+      </c>
+      <c r="D49" s="32">
         <v>20</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="33">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>760</v>
-      </c>
-      <c r="C50">
+      <c r="A50" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C50" s="32">
         <v>20</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="33">
         <v>1.25</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" t="s">
-        <v>761</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="A51" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="C51" s="34">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="32">
+        <v>10</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="33">
         <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>761</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52">
+      <c r="A52" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="C52" s="32">
+        <v>10</v>
+      </c>
+      <c r="D52" s="32">
         <v>20</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>761</v>
-      </c>
-      <c r="C53">
+      <c r="A53" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="C53" s="35">
         <v>20</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" t="s">
+      <c r="D53" s="36"/>
+      <c r="E53" s="35" t="s">
         <v>758</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="37">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C54" s="5">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F54">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C55">
-        <v>60</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
       <c r="E55" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F55">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>764</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>60</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="E56" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F56">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>764</v>
-      </c>
-      <c r="C57">
-        <v>60</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>761</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
       <c r="E57" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -28028,12 +28179,19 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>765</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+        <v>761</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>758</v>
+      </c>
       <c r="F58">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -28041,10 +28199,15 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>766</v>
-      </c>
-      <c r="C59" s="5"/>
+        <v>761</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
       <c r="D59" s="5"/>
+      <c r="E59" t="s">
+        <v>758</v>
+      </c>
       <c r="F59">
         <v>1.1000000000000001</v>
       </c>
@@ -28054,12 +28217,19 @@
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>767</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+        <v>762</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>763</v>
+      </c>
       <c r="F60">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -28067,12 +28237,17 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>768</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>762</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
       <c r="D61" s="5"/>
+      <c r="E61" t="s">
+        <v>763</v>
+      </c>
       <c r="F61">
-        <v>0.85</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -28080,12 +28255,19 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>769</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>763</v>
+      </c>
       <c r="F62">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -28093,11 +28275,94 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
+        <v>764</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" t="s">
+        <v>763</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>765</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="F64">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>766</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="F65">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>767</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="F66">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>768</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="F67">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>769</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="F68">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
         <v>770</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="F63">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="F69">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -28480,10 +28745,10 @@
 
 <file path=xl/worksheets/sheet226.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D400-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29499,37 +29764,54 @@
         <v>23502</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>742</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B60" s="26">
         <v>2.6027400000000001E-4</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="26">
         <v>1.15E-4</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="26">
         <v>1.9606160000000001E-3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="26">
         <v>23502</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>742</v>
+      </c>
+      <c r="B61">
+        <v>2.6027400000000001E-4</v>
+      </c>
+      <c r="C61">
+        <v>1.15E-4</v>
+      </c>
+      <c r="D61">
+        <v>1.9606160000000001E-3</v>
+      </c>
+      <c r="E61">
+        <v>23502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>82</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>4.1643799999999999E-4</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>5.7500000000000002E-5</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>3.136986E-3</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>36171</v>
       </c>
     </row>
@@ -31510,10 +31792,10 @@
 
 <file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DB00-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31760,149 +32042,154 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>824</v>
+    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>821</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="26">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" s="26">
         <v>20</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" t="s">
+      <c r="E16" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="26">
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>825</v>
+    <row r="17" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>823</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>825</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
+    <row r="18" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="C18" s="26">
+        <v>10</v>
+      </c>
+      <c r="D18" s="26">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>825</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="C19" s="26">
         <v>20</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" t="s">
+      <c r="E19" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="26">
         <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>824</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>764</v>
+        <v>67</v>
       </c>
       <c r="C21">
-        <v>60</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
       <c r="E21" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -31910,40 +32197,37 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>764</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>764</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>825</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
       <c r="E23" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -31951,12 +32235,19 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>765</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+        <v>825</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>822</v>
+      </c>
       <c r="F24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -31964,12 +32255,17 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>766</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>825</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
       <c r="D25" s="5"/>
+      <c r="E25" t="s">
+        <v>822</v>
+      </c>
       <c r="F25">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -31977,10 +32273,17 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>767</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>826</v>
+      </c>
       <c r="F26">
         <v>0.8</v>
       </c>
@@ -31990,12 +32293,17 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>768</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
       <c r="D27" s="5"/>
+      <c r="E27" t="s">
+        <v>826</v>
+      </c>
       <c r="F27">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -32003,12 +32311,19 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>769</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>826</v>
+      </c>
       <c r="F28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -32016,55 +32331,138 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
+        <v>764</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" t="s">
+        <v>826</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>765</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="F30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>766</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>767</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>768</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="F33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>769</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="F34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
         <v>770</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="F29">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="F35">
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>961</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>962</v>
       </c>
-      <c r="F31">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>963</v>
       </c>
-      <c r="F32">
+      <c r="F38">
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" t="s">
         <v>964</v>
       </c>
-      <c r="F33">
+      <c r="F39">
         <v>2.5</v>
       </c>
     </row>
@@ -32806,10 +33204,10 @@
 
 <file path=xl/worksheets/sheet237.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-E000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34152,47 +34550,47 @@
         <v>28940</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>742</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B39" s="26">
         <v>15</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="26">
         <v>100</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="26">
         <v>100</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="26">
         <v>80</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="26">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="26">
         <v>2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="26">
         <v>400</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="26">
         <v>0.05</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="26">
         <v>55</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="38">
         <v>28940</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>742</v>
       </c>
       <c r="B40">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -34207,10 +34605,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I40">
         <v>0.05</v>
@@ -34219,6 +34617,41 @@
         <v>55</v>
       </c>
       <c r="K40" s="18">
+        <v>28940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>80</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>800</v>
+      </c>
+      <c r="I41">
+        <v>0.05</v>
+      </c>
+      <c r="J41">
+        <v>55</v>
+      </c>
+      <c r="K41" s="18">
         <v>230441</v>
       </c>
     </row>
@@ -34230,10 +34663,10 @@
 
 <file path=xl/worksheets/sheet238.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D6C426-89EE-49AA-9C90-5B5D8351FDF2}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35078,224 +35511,241 @@
         <v>392968.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
-        <v>142999.65</v>
-      </c>
-      <c r="C50">
-        <v>204285.21</v>
-      </c>
-      <c r="D50">
-        <v>306427.82</v>
-      </c>
-      <c r="E50">
-        <v>510713.03</v>
+    <row r="50" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="26">
+        <v>110031.29</v>
+      </c>
+      <c r="C50" s="26">
+        <v>157187.56</v>
+      </c>
+      <c r="D50" s="26">
+        <v>235781.34</v>
+      </c>
+      <c r="E50" s="26">
+        <v>392968.9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>20075.71</v>
+        <v>142999.65</v>
       </c>
       <c r="C51">
-        <v>28679.59</v>
+        <v>204285.21</v>
       </c>
       <c r="D51">
-        <v>43019.39</v>
+        <v>306427.82</v>
       </c>
       <c r="E51">
-        <v>71698.98</v>
+        <v>510713.03</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>13540.32</v>
+        <v>20075.71</v>
       </c>
       <c r="C52">
-        <v>19343.32</v>
+        <v>28679.59</v>
       </c>
       <c r="D52">
-        <v>29014.98</v>
+        <v>43019.39</v>
       </c>
       <c r="E52">
-        <v>48358.3</v>
+        <v>71698.98</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>2396.27</v>
+        <v>13540.32</v>
       </c>
       <c r="C53">
-        <v>3423.24</v>
+        <v>19343.32</v>
       </c>
       <c r="D53">
-        <v>5134.8599999999997</v>
+        <v>29014.98</v>
       </c>
       <c r="E53">
-        <v>8558.1</v>
+        <v>48358.3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>89586.02</v>
+        <v>2396.27</v>
       </c>
       <c r="C54">
-        <v>127980.03</v>
+        <v>3423.24</v>
       </c>
       <c r="D54">
-        <v>191970.04</v>
+        <v>5134.8599999999997</v>
       </c>
       <c r="E54">
-        <v>319950.07</v>
+        <v>8558.1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
-        <v>5308.32</v>
+        <v>89586.02</v>
       </c>
       <c r="C55">
-        <v>7583.32</v>
+        <v>127980.03</v>
       </c>
       <c r="D55">
-        <v>11374.98</v>
+        <v>191970.04</v>
       </c>
       <c r="E55">
-        <v>18958.29</v>
+        <v>319950.07</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
-        <v>742.22</v>
+        <v>5308.32</v>
       </c>
       <c r="C56">
-        <v>1060.31</v>
+        <v>7583.32</v>
       </c>
       <c r="D56">
-        <v>1590.47</v>
+        <v>11374.98</v>
       </c>
       <c r="E56">
-        <v>2650.78</v>
+        <v>18958.29</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>351254.41</v>
+        <v>742.22</v>
       </c>
       <c r="C57">
-        <v>501792.02</v>
+        <v>1060.31</v>
       </c>
       <c r="D57">
-        <v>752688.03</v>
+        <v>1590.47</v>
       </c>
       <c r="E57">
-        <v>1254480.05</v>
+        <v>2650.78</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>205020.01</v>
+        <v>351254.41</v>
       </c>
       <c r="C58">
-        <v>292885.73</v>
+        <v>501792.02</v>
       </c>
       <c r="D58">
-        <v>439328.6</v>
+        <v>752688.03</v>
       </c>
       <c r="E58">
-        <v>732214.33</v>
+        <v>1254480.05</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B59">
-        <v>94453.62</v>
+        <v>205020.01</v>
       </c>
       <c r="C59">
-        <v>134933.74</v>
+        <v>292885.73</v>
       </c>
       <c r="D59">
-        <v>202400.61</v>
+        <v>439328.6</v>
       </c>
       <c r="E59">
-        <v>337334.36</v>
+        <v>732214.33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B60">
-        <v>266480.05</v>
+        <v>94453.62</v>
       </c>
       <c r="C60">
-        <v>380685.78</v>
+        <v>134933.74</v>
       </c>
       <c r="D60">
-        <v>571028.67000000004</v>
+        <v>202400.61</v>
       </c>
       <c r="E60">
-        <v>951714.46</v>
+        <v>337334.36</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B61">
-        <v>185951.6</v>
+        <v>266480.05</v>
       </c>
       <c r="C61">
-        <v>265645.14</v>
+        <v>380685.78</v>
       </c>
       <c r="D61">
-        <v>398467.71</v>
+        <v>571028.67000000004</v>
       </c>
       <c r="E61">
-        <v>664112.86</v>
+        <v>951714.46</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>964</v>
+      </c>
+      <c r="B62">
+        <v>185951.6</v>
+      </c>
+      <c r="C62">
+        <v>265645.14</v>
+      </c>
+      <c r="D62">
+        <v>398467.71</v>
+      </c>
+      <c r="E62">
+        <v>664112.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>395305.03</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>564721.47</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>847082.21</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>1411803.68</v>
       </c>
     </row>
@@ -35307,10 +35757,10 @@
 
 <file path=xl/worksheets/sheet239.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB50D737-0212-40DC-B856-D8A5EC742BF6}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36302,189 +36752,189 @@
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="26">
         <v>1.2939000000000001E-2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="26">
         <v>1.4855999999999999E-2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="26">
         <v>3.4062000000000002E-2</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="26">
         <v>5.5164999999999999E-2</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="26">
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>2.2799999999999999E-3</v>
+        <v>1.2939000000000001E-2</v>
       </c>
       <c r="C51">
-        <v>2.6180000000000001E-3</v>
+        <v>1.4855999999999999E-2</v>
       </c>
       <c r="D51">
-        <v>6.0020000000000004E-3</v>
+        <v>3.4062000000000002E-2</v>
       </c>
       <c r="E51">
-        <v>9.7210000000000005E-3</v>
+        <v>5.5164999999999999E-2</v>
       </c>
       <c r="F51">
-        <v>1.7174999999999999E-2</v>
+        <v>9.7467999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>1.5533E-2</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="C52">
-        <v>1.7833999999999999E-2</v>
+        <v>2.6180000000000001E-3</v>
       </c>
       <c r="D52">
-        <v>4.0890000000000003E-2</v>
+        <v>6.0020000000000004E-3</v>
       </c>
       <c r="E52">
-        <v>6.6222000000000003E-2</v>
+        <v>9.7210000000000005E-3</v>
       </c>
       <c r="F52">
-        <v>0.117004</v>
+        <v>1.7174999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>2.7360000000000002E-3</v>
+        <v>1.5533E-2</v>
       </c>
       <c r="C53">
-        <v>3.1410000000000001E-3</v>
+        <v>1.7833999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>7.2030000000000002E-3</v>
+        <v>4.0890000000000003E-2</v>
       </c>
       <c r="E53">
-        <v>1.1665E-2</v>
+        <v>6.6222000000000003E-2</v>
       </c>
       <c r="F53">
-        <v>2.061E-2</v>
+        <v>0.117004</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>1.8752999999999999E-2</v>
+        <v>2.7360000000000002E-3</v>
       </c>
       <c r="C54">
-        <v>2.1531999999999999E-2</v>
+        <v>3.1410000000000001E-3</v>
       </c>
       <c r="D54">
-        <v>4.9368000000000002E-2</v>
+        <v>7.2030000000000002E-3</v>
       </c>
       <c r="E54">
-        <v>7.9951999999999995E-2</v>
+        <v>1.1665E-2</v>
       </c>
       <c r="F54">
-        <v>0.141264</v>
+        <v>2.061E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
-        <v>0.59691300000000003</v>
+        <v>1.8752999999999999E-2</v>
       </c>
       <c r="C55">
-        <v>0.68535699999999999</v>
+        <v>2.1531999999999999E-2</v>
       </c>
       <c r="D55">
-        <v>1.571374</v>
+        <v>4.9368000000000002E-2</v>
       </c>
       <c r="E55">
-        <v>2.5448590000000002</v>
+        <v>7.9951999999999995E-2</v>
       </c>
       <c r="F55">
-        <v>4.4964040000000001</v>
+        <v>0.141264</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
-        <v>1.2835460000000001</v>
+        <v>0.59691300000000003</v>
       </c>
       <c r="C56">
-        <v>1.473727</v>
+        <v>0.68535699999999999</v>
       </c>
       <c r="D56">
-        <v>3.3789340000000001</v>
+        <v>1.571374</v>
       </c>
       <c r="E56">
-        <v>5.4722249999999999</v>
+        <v>2.5448590000000002</v>
       </c>
       <c r="F56">
-        <v>9.6686420000000002</v>
+        <v>4.4964040000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>5.757E-3</v>
+        <v>1.2835460000000001</v>
       </c>
       <c r="C57">
-        <v>6.6100000000000004E-3</v>
+        <v>1.473727</v>
       </c>
       <c r="D57">
-        <v>1.5155999999999999E-2</v>
+        <v>3.3789340000000001</v>
       </c>
       <c r="E57">
-        <v>2.4545000000000001E-2</v>
+        <v>5.4722249999999999</v>
       </c>
       <c r="F57">
-        <v>4.3367000000000003E-2</v>
+        <v>9.6686420000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>1.2284E-2</v>
+        <v>5.757E-3</v>
       </c>
       <c r="C58">
-        <v>1.4104E-2</v>
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="D58">
-        <v>3.2336999999999998E-2</v>
+        <v>1.5155999999999999E-2</v>
       </c>
       <c r="E58">
-        <v>5.237E-2</v>
+        <v>2.4545000000000001E-2</v>
       </c>
       <c r="F58">
-        <v>9.2530000000000001E-2</v>
+        <v>4.3367000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B59">
         <v>1.2284E-2</v>
@@ -36504,7 +36954,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B60">
         <v>1.2284E-2</v>
@@ -36524,7 +36974,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B61">
         <v>1.2284E-2</v>
@@ -36544,21 +36994,41 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>964</v>
+      </c>
+      <c r="B62">
+        <v>1.2284E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.4104E-2</v>
+      </c>
+      <c r="D62">
+        <v>3.2336999999999998E-2</v>
+      </c>
+      <c r="E62">
+        <v>5.237E-2</v>
+      </c>
+      <c r="F62">
+        <v>9.2530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>1.2939000000000001E-2</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>1.4855999999999999E-2</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>3.4062000000000002E-2</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>5.5164999999999999E-2</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
@@ -36806,10 +37276,10 @@
 
 <file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B802B-6900-474F-B2EC-A070196B70EF}">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41258,1198 +41728,1290 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>67</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B194" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C194">
-        <v>1850</v>
-      </c>
-      <c r="D194">
-        <v>2124</v>
-      </c>
-      <c r="E194">
-        <v>4871</v>
-      </c>
-      <c r="F194">
-        <v>7889</v>
-      </c>
-      <c r="G194">
-        <v>13938</v>
+      <c r="C194" s="26">
+        <v>1424</v>
+      </c>
+      <c r="D194" s="26">
+        <v>1635</v>
+      </c>
+      <c r="E194" s="26">
+        <v>3748</v>
+      </c>
+      <c r="F194" s="26">
+        <v>6070</v>
+      </c>
+      <c r="G194" s="26">
+        <v>10725</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B195" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C195">
-        <v>2643</v>
-      </c>
-      <c r="D195">
-        <v>3035</v>
-      </c>
-      <c r="E195">
-        <v>6958</v>
-      </c>
-      <c r="F195">
-        <v>11269</v>
-      </c>
-      <c r="G195">
-        <v>19911</v>
+      <c r="C195" s="26">
+        <v>2034</v>
+      </c>
+      <c r="D195" s="26">
+        <v>2335</v>
+      </c>
+      <c r="E195" s="26">
+        <v>5354</v>
+      </c>
+      <c r="F195" s="26">
+        <v>8671</v>
+      </c>
+      <c r="G195" s="26">
+        <v>15321</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>67</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B196" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C196">
-        <v>3965</v>
-      </c>
-      <c r="D196">
-        <v>4552</v>
-      </c>
-      <c r="E196">
-        <v>10438</v>
-      </c>
-      <c r="F196">
-        <v>16904</v>
-      </c>
-      <c r="G196">
-        <v>29867</v>
+      <c r="C196" s="26">
+        <v>3051</v>
+      </c>
+      <c r="D196" s="26">
+        <v>3503</v>
+      </c>
+      <c r="E196" s="26">
+        <v>8031</v>
+      </c>
+      <c r="F196" s="26">
+        <v>13007</v>
+      </c>
+      <c r="G196" s="26">
+        <v>22981</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>67</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B197" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C197">
-        <v>6608</v>
-      </c>
-      <c r="D197">
-        <v>7587</v>
-      </c>
-      <c r="E197">
-        <v>17396</v>
-      </c>
-      <c r="F197">
-        <v>28173</v>
-      </c>
-      <c r="G197">
-        <v>49778</v>
+      <c r="C197" s="26">
+        <v>5085</v>
+      </c>
+      <c r="D197" s="26">
+        <v>5838</v>
+      </c>
+      <c r="E197" s="26">
+        <v>13385</v>
+      </c>
+      <c r="F197" s="26">
+        <v>21678</v>
+      </c>
+      <c r="G197" s="26">
+        <v>38302</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>993</v>
+        <v>67</v>
       </c>
       <c r="B198" t="s">
         <v>165</v>
       </c>
       <c r="C198">
-        <v>46</v>
+        <v>1850</v>
       </c>
       <c r="D198">
-        <v>53</v>
+        <v>2124</v>
       </c>
       <c r="E198">
-        <v>120</v>
+        <v>4871</v>
       </c>
       <c r="F198">
-        <v>195</v>
+        <v>7889</v>
       </c>
       <c r="G198">
-        <v>345</v>
+        <v>13938</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>993</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
         <v>167</v>
       </c>
       <c r="C199">
-        <v>65</v>
+        <v>2643</v>
       </c>
       <c r="D199">
-        <v>75</v>
+        <v>3035</v>
       </c>
       <c r="E199">
-        <v>172</v>
+        <v>6958</v>
       </c>
       <c r="F199">
-        <v>279</v>
+        <v>11269</v>
       </c>
       <c r="G199">
-        <v>493</v>
+        <v>19911</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>993</v>
+        <v>67</v>
       </c>
       <c r="B200" t="s">
         <v>168</v>
       </c>
       <c r="C200">
-        <v>98</v>
+        <v>3965</v>
       </c>
       <c r="D200">
-        <v>113</v>
+        <v>4552</v>
       </c>
       <c r="E200">
-        <v>258</v>
+        <v>10438</v>
       </c>
       <c r="F200">
-        <v>418</v>
+        <v>16904</v>
       </c>
       <c r="G200">
-        <v>739</v>
+        <v>29867</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>993</v>
+        <v>67</v>
       </c>
       <c r="B201" t="s">
         <v>169</v>
       </c>
       <c r="C201">
-        <v>163</v>
+        <v>6608</v>
       </c>
       <c r="D201">
-        <v>188</v>
+        <v>7587</v>
       </c>
       <c r="E201">
-        <v>430</v>
+        <v>17396</v>
       </c>
       <c r="F201">
-        <v>697</v>
+        <v>28173</v>
       </c>
       <c r="G201">
-        <v>1231</v>
+        <v>49778</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>993</v>
       </c>
       <c r="B202" t="s">
         <v>165</v>
       </c>
       <c r="C202">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="D202">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="E202">
-        <v>554</v>
+        <v>120</v>
       </c>
       <c r="F202">
-        <v>897</v>
+        <v>195</v>
       </c>
       <c r="G202">
-        <v>1584</v>
+        <v>345</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>73</v>
+        <v>993</v>
       </c>
       <c r="B203" t="s">
         <v>167</v>
       </c>
       <c r="C203">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="D203">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="E203">
-        <v>791</v>
+        <v>172</v>
       </c>
       <c r="F203">
-        <v>1281</v>
+        <v>279</v>
       </c>
       <c r="G203">
-        <v>2263</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>73</v>
+        <v>993</v>
       </c>
       <c r="B204" t="s">
         <v>168</v>
       </c>
       <c r="C204">
-        <v>451</v>
+        <v>98</v>
       </c>
       <c r="D204">
-        <v>517</v>
+        <v>113</v>
       </c>
       <c r="E204">
-        <v>1186</v>
+        <v>258</v>
       </c>
       <c r="F204">
-        <v>1921</v>
+        <v>418</v>
       </c>
       <c r="G204">
-        <v>3395</v>
+        <v>739</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>73</v>
+        <v>993</v>
       </c>
       <c r="B205" t="s">
         <v>169</v>
       </c>
       <c r="C205">
-        <v>751</v>
+        <v>163</v>
       </c>
       <c r="D205">
-        <v>862</v>
+        <v>188</v>
       </c>
       <c r="E205">
-        <v>1977</v>
+        <v>430</v>
       </c>
       <c r="F205">
-        <v>3202</v>
+        <v>697</v>
       </c>
       <c r="G205">
-        <v>5658</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B206" t="s">
         <v>165</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="E206">
-        <v>17</v>
+        <v>554</v>
       </c>
       <c r="F206">
-        <v>28</v>
+        <v>897</v>
       </c>
       <c r="G206">
-        <v>49</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B207" t="s">
         <v>167</v>
       </c>
       <c r="C207">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="E207">
-        <v>25</v>
+        <v>791</v>
       </c>
       <c r="F207">
-        <v>40</v>
+        <v>1281</v>
       </c>
       <c r="G207">
-        <v>71</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B208" t="s">
         <v>168</v>
       </c>
       <c r="C208">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="D208">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="E208">
-        <v>37</v>
+        <v>1186</v>
       </c>
       <c r="F208">
-        <v>60</v>
+        <v>1921</v>
       </c>
       <c r="G208">
-        <v>106</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B209" t="s">
         <v>169</v>
       </c>
       <c r="C209">
-        <v>23</v>
+        <v>751</v>
       </c>
       <c r="D209">
-        <v>27</v>
+        <v>862</v>
       </c>
       <c r="E209">
-        <v>62</v>
+        <v>1977</v>
       </c>
       <c r="F209">
-        <v>100</v>
+        <v>3202</v>
       </c>
       <c r="G209">
-        <v>176</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B210" t="s">
         <v>165</v>
       </c>
       <c r="C210">
-        <v>1680</v>
+        <v>7</v>
       </c>
       <c r="D210">
-        <v>1929</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>4423</v>
+        <v>17</v>
       </c>
       <c r="F210">
-        <v>7163</v>
+        <v>28</v>
       </c>
       <c r="G210">
-        <v>12655</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B211" t="s">
         <v>167</v>
       </c>
       <c r="C211">
-        <v>2400</v>
+        <v>9</v>
       </c>
       <c r="D211">
-        <v>2756</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>6318</v>
+        <v>25</v>
       </c>
       <c r="F211">
-        <v>10232</v>
+        <v>40</v>
       </c>
       <c r="G211">
-        <v>18079</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B212" t="s">
         <v>168</v>
       </c>
       <c r="C212">
-        <v>3600</v>
+        <v>14</v>
       </c>
       <c r="D212">
-        <v>4133</v>
+        <v>16</v>
       </c>
       <c r="E212">
-        <v>9477</v>
+        <v>37</v>
       </c>
       <c r="F212">
-        <v>15348</v>
+        <v>60</v>
       </c>
       <c r="G212">
-        <v>27118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B213" t="s">
         <v>169</v>
       </c>
       <c r="C213">
-        <v>6000</v>
+        <v>23</v>
       </c>
       <c r="D213">
-        <v>6889</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>15795</v>
+        <v>62</v>
       </c>
       <c r="F213">
-        <v>25581</v>
+        <v>100</v>
       </c>
       <c r="G213">
-        <v>45197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B214" t="s">
         <v>165</v>
       </c>
       <c r="C214">
-        <v>3169</v>
+        <v>1680</v>
       </c>
       <c r="D214">
-        <v>3638</v>
+        <v>1929</v>
       </c>
       <c r="E214">
-        <v>8341</v>
+        <v>4423</v>
       </c>
       <c r="F214">
-        <v>13509</v>
+        <v>7163</v>
       </c>
       <c r="G214">
-        <v>23868</v>
+        <v>12655</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B215" t="s">
         <v>167</v>
       </c>
       <c r="C215">
-        <v>4527</v>
+        <v>2400</v>
       </c>
       <c r="D215">
-        <v>5197</v>
+        <v>2756</v>
       </c>
       <c r="E215">
-        <v>11916</v>
+        <v>6318</v>
       </c>
       <c r="F215">
-        <v>19298</v>
+        <v>10232</v>
       </c>
       <c r="G215">
-        <v>34098</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B216" t="s">
         <v>168</v>
       </c>
       <c r="C216">
-        <v>6790</v>
+        <v>3600</v>
       </c>
       <c r="D216">
-        <v>7796</v>
+        <v>4133</v>
       </c>
       <c r="E216">
-        <v>17874</v>
+        <v>9477</v>
       </c>
       <c r="F216">
-        <v>28948</v>
+        <v>15348</v>
       </c>
       <c r="G216">
-        <v>51147</v>
+        <v>27118</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B217" t="s">
         <v>169</v>
       </c>
       <c r="C217">
-        <v>11316</v>
+        <v>6000</v>
       </c>
       <c r="D217">
-        <v>12993</v>
+        <v>6889</v>
       </c>
       <c r="E217">
-        <v>29791</v>
+        <v>15795</v>
       </c>
       <c r="F217">
-        <v>48246</v>
+        <v>25581</v>
       </c>
       <c r="G217">
-        <v>85244</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B218" t="s">
         <v>165</v>
       </c>
       <c r="C218">
-        <v>953</v>
+        <v>3169</v>
       </c>
       <c r="D218">
-        <v>1094</v>
+        <v>3638</v>
       </c>
       <c r="E218">
-        <v>2508</v>
+        <v>8341</v>
       </c>
       <c r="F218">
-        <v>4062</v>
+        <v>13509</v>
       </c>
       <c r="G218">
-        <v>7176</v>
+        <v>23868</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B219" t="s">
         <v>167</v>
       </c>
       <c r="C219">
-        <v>1361</v>
+        <v>4527</v>
       </c>
       <c r="D219">
-        <v>1563</v>
+        <v>5197</v>
       </c>
       <c r="E219">
-        <v>3583</v>
+        <v>11916</v>
       </c>
       <c r="F219">
-        <v>5802</v>
+        <v>19298</v>
       </c>
       <c r="G219">
-        <v>10252</v>
+        <v>34098</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B220" t="s">
         <v>168</v>
       </c>
       <c r="C220">
-        <v>2041</v>
+        <v>6790</v>
       </c>
       <c r="D220">
-        <v>2344</v>
+        <v>7796</v>
       </c>
       <c r="E220">
-        <v>5374</v>
+        <v>17874</v>
       </c>
       <c r="F220">
-        <v>8703</v>
+        <v>28948</v>
       </c>
       <c r="G220">
-        <v>15378</v>
+        <v>51147</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B221" t="s">
         <v>169</v>
       </c>
       <c r="C221">
-        <v>3402</v>
+        <v>11316</v>
       </c>
       <c r="D221">
-        <v>3907</v>
+        <v>12993</v>
       </c>
       <c r="E221">
-        <v>8957</v>
+        <v>29791</v>
       </c>
       <c r="F221">
-        <v>14506</v>
+        <v>48246</v>
       </c>
       <c r="G221">
-        <v>25629</v>
+        <v>85244</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B222" t="s">
         <v>165</v>
       </c>
       <c r="C222">
-        <v>2022</v>
+        <v>953</v>
       </c>
       <c r="D222">
-        <v>2322</v>
+        <v>1094</v>
       </c>
       <c r="E222">
-        <v>5324</v>
+        <v>2508</v>
       </c>
       <c r="F222">
-        <v>8622</v>
+        <v>4062</v>
       </c>
       <c r="G222">
-        <v>15233</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B223" t="s">
         <v>167</v>
       </c>
       <c r="C223">
-        <v>2889</v>
+        <v>1361</v>
       </c>
       <c r="D223">
-        <v>3317</v>
+        <v>1563</v>
       </c>
       <c r="E223">
-        <v>7605</v>
+        <v>3583</v>
       </c>
       <c r="F223">
-        <v>12316</v>
+        <v>5802</v>
       </c>
       <c r="G223">
-        <v>21761</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B224" t="s">
         <v>168</v>
       </c>
       <c r="C224">
-        <v>4333</v>
+        <v>2041</v>
       </c>
       <c r="D224">
-        <v>4975</v>
+        <v>2344</v>
       </c>
       <c r="E224">
-        <v>11408</v>
+        <v>5374</v>
       </c>
       <c r="F224">
-        <v>18475</v>
+        <v>8703</v>
       </c>
       <c r="G224">
-        <v>32642</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B225" t="s">
         <v>169</v>
       </c>
       <c r="C225">
-        <v>7222</v>
+        <v>3402</v>
       </c>
       <c r="D225">
-        <v>8292</v>
+        <v>3907</v>
       </c>
       <c r="E225">
-        <v>19013</v>
+        <v>8957</v>
       </c>
       <c r="F225">
-        <v>30791</v>
+        <v>14506</v>
       </c>
       <c r="G225">
-        <v>54403</v>
+        <v>25629</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B226" t="s">
         <v>165</v>
       </c>
       <c r="C226">
-        <v>2518</v>
+        <v>2022</v>
       </c>
       <c r="D226">
-        <v>2892</v>
+        <v>2322</v>
       </c>
       <c r="E226">
-        <v>6630</v>
+        <v>5324</v>
       </c>
       <c r="F226">
-        <v>10737</v>
+        <v>8622</v>
       </c>
       <c r="G226">
-        <v>18971</v>
+        <v>15233</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B227" t="s">
         <v>167</v>
       </c>
       <c r="C227">
-        <v>3598</v>
+        <v>2889</v>
       </c>
       <c r="D227">
-        <v>4131</v>
+        <v>3317</v>
       </c>
       <c r="E227">
-        <v>9471</v>
+        <v>7605</v>
       </c>
       <c r="F227">
-        <v>15338</v>
+        <v>12316</v>
       </c>
       <c r="G227">
-        <v>27101</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B228" t="s">
         <v>168</v>
       </c>
       <c r="C228">
-        <v>5397</v>
+        <v>4333</v>
       </c>
       <c r="D228">
-        <v>6196</v>
+        <v>4975</v>
       </c>
       <c r="E228">
-        <v>14207</v>
+        <v>11408</v>
       </c>
       <c r="F228">
-        <v>23008</v>
+        <v>18475</v>
       </c>
       <c r="G228">
-        <v>40651</v>
+        <v>32642</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
         <v>169</v>
       </c>
       <c r="C229">
-        <v>8995</v>
+        <v>7222</v>
       </c>
       <c r="D229">
-        <v>10327</v>
+        <v>8292</v>
       </c>
       <c r="E229">
-        <v>23678</v>
+        <v>19013</v>
       </c>
       <c r="F229">
-        <v>38346</v>
+        <v>30791</v>
       </c>
       <c r="G229">
-        <v>67752</v>
+        <v>54403</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B230" t="s">
         <v>165</v>
       </c>
       <c r="C230">
-        <v>1160</v>
+        <v>2518</v>
       </c>
       <c r="D230">
-        <v>1332</v>
+        <v>2892</v>
       </c>
       <c r="E230">
-        <v>3054</v>
+        <v>6630</v>
       </c>
       <c r="F230">
-        <v>4947</v>
+        <v>10737</v>
       </c>
       <c r="G230">
-        <v>8740</v>
+        <v>18971</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B231" t="s">
         <v>167</v>
       </c>
       <c r="C231">
-        <v>1658</v>
+        <v>3598</v>
       </c>
       <c r="D231">
-        <v>1903</v>
+        <v>4131</v>
       </c>
       <c r="E231">
-        <v>4363</v>
+        <v>9471</v>
       </c>
       <c r="F231">
-        <v>7066</v>
+        <v>15338</v>
       </c>
       <c r="G231">
-        <v>12485</v>
+        <v>27101</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B232" t="s">
         <v>168</v>
       </c>
       <c r="C232">
-        <v>2486</v>
+        <v>5397</v>
       </c>
       <c r="D232">
-        <v>2855</v>
+        <v>6196</v>
       </c>
       <c r="E232">
-        <v>6545</v>
+        <v>14207</v>
       </c>
       <c r="F232">
-        <v>10600</v>
+        <v>23008</v>
       </c>
       <c r="G232">
-        <v>18728</v>
+        <v>40651</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B233" t="s">
         <v>169</v>
       </c>
       <c r="C233">
-        <v>4144</v>
+        <v>8995</v>
       </c>
       <c r="D233">
-        <v>4758</v>
+        <v>10327</v>
       </c>
       <c r="E233">
-        <v>10908</v>
+        <v>23678</v>
       </c>
       <c r="F233">
-        <v>17666</v>
+        <v>38346</v>
       </c>
       <c r="G233">
-        <v>31214</v>
+        <v>67752</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B234" t="s">
         <v>165</v>
       </c>
       <c r="C234">
-        <v>3273</v>
+        <v>1160</v>
       </c>
       <c r="D234">
-        <v>3758</v>
+        <v>1332</v>
       </c>
       <c r="E234">
-        <v>8617</v>
+        <v>3054</v>
       </c>
       <c r="F234">
-        <v>13956</v>
+        <v>4947</v>
       </c>
       <c r="G234">
-        <v>24657</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B235" t="s">
         <v>167</v>
       </c>
       <c r="C235">
-        <v>4676</v>
+        <v>1658</v>
       </c>
       <c r="D235">
-        <v>5369</v>
+        <v>1903</v>
       </c>
       <c r="E235">
-        <v>12310</v>
+        <v>4363</v>
       </c>
       <c r="F235">
-        <v>19937</v>
+        <v>7066</v>
       </c>
       <c r="G235">
-        <v>35225</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B236" t="s">
         <v>168</v>
       </c>
       <c r="C236">
-        <v>7015</v>
+        <v>2486</v>
       </c>
       <c r="D236">
-        <v>8054</v>
+        <v>2855</v>
       </c>
       <c r="E236">
-        <v>18465</v>
+        <v>6545</v>
       </c>
       <c r="F236">
-        <v>29905</v>
+        <v>10600</v>
       </c>
       <c r="G236">
-        <v>52837</v>
+        <v>18728</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B237" t="s">
         <v>169</v>
       </c>
       <c r="C237">
-        <v>11691</v>
+        <v>4144</v>
       </c>
       <c r="D237">
-        <v>13423</v>
+        <v>4758</v>
       </c>
       <c r="E237">
-        <v>30776</v>
+        <v>10908</v>
       </c>
       <c r="F237">
-        <v>49841</v>
+        <v>17666</v>
       </c>
       <c r="G237">
-        <v>88062</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B238" t="s">
         <v>165</v>
       </c>
       <c r="C238">
-        <v>2284</v>
+        <v>3273</v>
       </c>
       <c r="D238">
-        <v>2623</v>
+        <v>3758</v>
       </c>
       <c r="E238">
-        <v>6013</v>
+        <v>8617</v>
       </c>
       <c r="F238">
-        <v>9738</v>
+        <v>13956</v>
       </c>
       <c r="G238">
-        <v>17206</v>
+        <v>24657</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B239" t="s">
         <v>167</v>
       </c>
       <c r="C239">
-        <v>3263</v>
+        <v>4676</v>
       </c>
       <c r="D239">
-        <v>3747</v>
+        <v>5369</v>
       </c>
       <c r="E239">
-        <v>8590</v>
+        <v>12310</v>
       </c>
       <c r="F239">
-        <v>13912</v>
+        <v>19937</v>
       </c>
       <c r="G239">
-        <v>24580</v>
+        <v>35225</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B240" t="s">
         <v>168</v>
       </c>
       <c r="C240">
-        <v>4895</v>
+        <v>7015</v>
       </c>
       <c r="D240">
-        <v>5620</v>
+        <v>8054</v>
       </c>
       <c r="E240">
-        <v>12885</v>
+        <v>18465</v>
       </c>
       <c r="F240">
-        <v>20868</v>
+        <v>29905</v>
       </c>
       <c r="G240">
-        <v>36870</v>
+        <v>52837</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B241" t="s">
         <v>169</v>
       </c>
       <c r="C241">
-        <v>8158</v>
+        <v>11691</v>
       </c>
       <c r="D241">
-        <v>9367</v>
+        <v>13423</v>
       </c>
       <c r="E241">
-        <v>21475</v>
+        <v>30776</v>
       </c>
       <c r="F241">
-        <v>34780</v>
+        <v>49841</v>
       </c>
       <c r="G241">
-        <v>61450</v>
+        <v>88062</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>83</v>
+        <v>964</v>
       </c>
       <c r="B242" t="s">
         <v>165</v>
       </c>
       <c r="C242">
-        <v>5115</v>
+        <v>2284</v>
       </c>
       <c r="D242">
-        <v>5873</v>
+        <v>2623</v>
       </c>
       <c r="E242">
-        <v>13465</v>
+        <v>6013</v>
       </c>
       <c r="F242">
-        <v>21807</v>
+        <v>9738</v>
       </c>
       <c r="G242">
-        <v>38530</v>
+        <v>17206</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>83</v>
+        <v>964</v>
       </c>
       <c r="B243" t="s">
         <v>167</v>
       </c>
       <c r="C243">
-        <v>7307</v>
+        <v>3263</v>
       </c>
       <c r="D243">
-        <v>8390</v>
+        <v>3747</v>
       </c>
       <c r="E243">
-        <v>19236</v>
+        <v>8590</v>
       </c>
       <c r="F243">
-        <v>31153</v>
+        <v>13912</v>
       </c>
       <c r="G243">
-        <v>55042</v>
+        <v>24580</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>83</v>
+        <v>964</v>
       </c>
       <c r="B244" t="s">
         <v>168</v>
       </c>
       <c r="C244">
-        <v>10960</v>
+        <v>4895</v>
       </c>
       <c r="D244">
-        <v>12584</v>
+        <v>5620</v>
       </c>
       <c r="E244">
-        <v>28853</v>
+        <v>12885</v>
       </c>
       <c r="F244">
-        <v>46729</v>
+        <v>20868</v>
       </c>
       <c r="G244">
-        <v>82563</v>
+        <v>36870</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>83</v>
+        <v>964</v>
       </c>
       <c r="B245" t="s">
         <v>169</v>
       </c>
       <c r="C245">
+        <v>8158</v>
+      </c>
+      <c r="D245">
+        <v>9367</v>
+      </c>
+      <c r="E245">
+        <v>21475</v>
+      </c>
+      <c r="F245">
+        <v>34780</v>
+      </c>
+      <c r="G245">
+        <v>61450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>83</v>
+      </c>
+      <c r="B246" t="s">
+        <v>165</v>
+      </c>
+      <c r="C246">
+        <v>5115</v>
+      </c>
+      <c r="D246">
+        <v>5873</v>
+      </c>
+      <c r="E246">
+        <v>13465</v>
+      </c>
+      <c r="F246">
+        <v>21807</v>
+      </c>
+      <c r="G246">
+        <v>38530</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>83</v>
+      </c>
+      <c r="B247" t="s">
+        <v>167</v>
+      </c>
+      <c r="C247">
+        <v>7307</v>
+      </c>
+      <c r="D247">
+        <v>8390</v>
+      </c>
+      <c r="E247">
+        <v>19236</v>
+      </c>
+      <c r="F247">
+        <v>31153</v>
+      </c>
+      <c r="G247">
+        <v>55042</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>83</v>
+      </c>
+      <c r="B248" t="s">
+        <v>168</v>
+      </c>
+      <c r="C248">
+        <v>10960</v>
+      </c>
+      <c r="D248">
+        <v>12584</v>
+      </c>
+      <c r="E248">
+        <v>28853</v>
+      </c>
+      <c r="F248">
+        <v>46729</v>
+      </c>
+      <c r="G248">
+        <v>82563</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>83</v>
+      </c>
+      <c r="B249" t="s">
+        <v>169</v>
+      </c>
+      <c r="C249">
         <v>18267</v>
       </c>
-      <c r="D245">
+      <c r="D249">
         <v>20974</v>
       </c>
-      <c r="E245">
+      <c r="E249">
         <v>48089</v>
       </c>
-      <c r="F245">
+      <c r="F249">
         <v>77882</v>
       </c>
-      <c r="G245">
+      <c r="G249">
         <v>137606</v>
       </c>
     </row>
@@ -42460,10 +43022,10 @@
 
 <file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DD3C9-B330-4E74-8D65-7C1404034804}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42911,71 +43473,71 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="26">
         <v>3.9964920000000001E-2</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="26" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>4.3598100000000001E-2</v>
+        <v>3.9964920000000001E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>2.9973690000000001E-2</v>
+        <v>4.3598100000000001E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>5.9947380000000001E-2</v>
+        <v>2.9973690000000001E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>2.3978949999999999E-2</v>
+        <v>5.9947380000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
-        <v>3.1971939999999997E-2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>999</v>
+        <v>2.3978949999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
-        <v>3.4255649999999999E-2</v>
+        <v>3.1971939999999997E-2</v>
       </c>
       <c r="C56" t="s">
         <v>999</v>
@@ -42983,15 +43545,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>3.9964920000000001E-2</v>
+        <v>3.4255649999999999E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>3.9964920000000001E-2</v>
@@ -42999,36 +43564,44 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B59">
-        <v>4.7957909999999999E-2</v>
+        <v>3.9964920000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B60">
-        <v>3.9964920000000001E-2</v>
+        <v>4.7957909999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B61">
-        <v>4.3598100000000001E-2</v>
+        <v>3.9964920000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>964</v>
+      </c>
+      <c r="B62">
+        <v>4.3598100000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>3.9964920000000001E-2</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -43039,10 +43612,10 @@
 
 <file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1590256-6A55-46CA-A90D-5C856B0A45CE}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44036,262 +44609,282 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="26">
         <v>0.25109999999999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="26">
         <v>0.90749999999999997</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="26">
         <v>1.8915</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="26">
         <v>3.1021000000000001</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="26">
         <v>4.7271000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>4.48E-2</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="C51">
-        <v>0.1832</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="D51">
-        <v>0.37580000000000002</v>
+        <v>1.8915</v>
       </c>
       <c r="E51">
-        <v>0.59299999999999997</v>
+        <v>3.1021000000000001</v>
       </c>
       <c r="F51">
-        <v>0.86560000000000004</v>
+        <v>4.7271000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52">
-        <v>0.30120000000000002</v>
+        <v>4.48E-2</v>
       </c>
       <c r="C52">
-        <v>0.77090000000000003</v>
+        <v>0.1832</v>
       </c>
       <c r="D52">
-        <v>1.6673</v>
+        <v>0.37580000000000002</v>
       </c>
       <c r="E52">
-        <v>2.7646999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F52">
-        <v>4.8615000000000004</v>
+        <v>0.86560000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B53">
-        <v>6.9400000000000003E-2</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="C53">
-        <v>0.41620000000000001</v>
+        <v>0.77090000000000003</v>
       </c>
       <c r="D53">
-        <v>0.67369999999999997</v>
+        <v>1.6673</v>
       </c>
       <c r="E53">
-        <v>0.89790000000000003</v>
+        <v>2.7646999999999999</v>
       </c>
       <c r="F53">
-        <v>1.1667000000000001</v>
+        <v>4.8615000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>0.36370000000000002</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="C54">
-        <v>0.77139999999999997</v>
+        <v>0.41620000000000001</v>
       </c>
       <c r="D54">
-        <v>1.6978</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="E54">
-        <v>2.8014999999999999</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="F54">
-        <v>5.0373000000000001</v>
+        <v>1.1667000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
-        <v>11.5754</v>
+        <v>0.36370000000000002</v>
       </c>
       <c r="C55">
-        <v>31.643899999999999</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="D55">
-        <v>67.983099999999993</v>
+        <v>1.6978</v>
       </c>
       <c r="E55">
-        <v>112.9162</v>
+        <v>2.8014999999999999</v>
       </c>
       <c r="F55">
-        <v>194.23150000000001</v>
+        <v>5.0373000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
-        <v>24.890599999999999</v>
+        <v>11.5754</v>
       </c>
       <c r="C56">
-        <v>73.511600000000001</v>
+        <v>31.643899999999999</v>
       </c>
       <c r="D56">
-        <v>156.6694</v>
+        <v>67.983099999999993</v>
       </c>
       <c r="E56">
-        <v>260.70760000000001</v>
+        <v>112.9162</v>
       </c>
       <c r="F56">
-        <v>433.9966</v>
+        <v>194.23150000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>0.11169999999999999</v>
+        <v>24.890599999999999</v>
       </c>
       <c r="C57">
-        <v>0.40379999999999999</v>
+        <v>73.511600000000001</v>
       </c>
       <c r="D57">
-        <v>0.84160000000000001</v>
+        <v>156.6694</v>
       </c>
       <c r="E57">
-        <v>1.3802000000000001</v>
+        <v>260.70760000000001</v>
       </c>
       <c r="F57">
-        <v>2.1032000000000002</v>
+        <v>433.9966</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>0.2384</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="C58">
-        <v>0.86150000000000004</v>
+        <v>0.40379999999999999</v>
       </c>
       <c r="D58">
-        <v>1.7957000000000001</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="E58">
-        <v>2.9449999999999998</v>
+        <v>1.3802000000000001</v>
       </c>
       <c r="F58">
-        <v>4.4875999999999996</v>
+        <v>2.1032000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B59">
-        <v>0.2495</v>
+        <v>0.2384</v>
       </c>
       <c r="C59">
-        <v>1.1697</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="D59">
-        <v>2.3296999999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="E59">
-        <v>3.4569000000000001</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="F59">
-        <v>4.8494999999999999</v>
+        <v>4.4875999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B60">
-        <v>0.2384</v>
+        <v>0.2495</v>
       </c>
       <c r="C60">
-        <v>0.86150000000000004</v>
+        <v>1.1697</v>
       </c>
       <c r="D60">
-        <v>1.7957000000000001</v>
+        <v>2.3296999999999999</v>
       </c>
       <c r="E60">
-        <v>2.9449999999999998</v>
+        <v>3.4569000000000001</v>
       </c>
       <c r="F60">
-        <v>4.4875999999999996</v>
+        <v>4.8494999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B61">
-        <v>0.2412</v>
+        <v>0.2384</v>
       </c>
       <c r="C61">
-        <v>0.9869</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="D61">
-        <v>2.0247999999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="E61">
-        <v>3.1947999999999999</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="F61">
-        <v>4.6635999999999997</v>
+        <v>4.4875999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>964</v>
+      </c>
+      <c r="B62">
+        <v>0.2412</v>
+      </c>
+      <c r="C62">
+        <v>0.9869</v>
+      </c>
+      <c r="D62">
+        <v>2.0247999999999999</v>
+      </c>
+      <c r="E62">
+        <v>3.1947999999999999</v>
+      </c>
+      <c r="F62">
+        <v>4.6635999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>0.25109999999999999</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>0.90749999999999997</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>1.8915</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>3.1021000000000001</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>4.7271000000000001</v>
       </c>
     </row>
@@ -44302,10 +44895,10 @@
 
 <file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC7345-7AB9-4B72-8350-23628CD4A363}">
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K229" sqref="K229"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48759,1198 +49352,1290 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>67</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B194" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C194">
-        <v>35907</v>
-      </c>
-      <c r="D194">
-        <v>129772</v>
-      </c>
-      <c r="E194">
-        <v>270484</v>
-      </c>
-      <c r="F194">
-        <v>443599</v>
-      </c>
-      <c r="G194">
-        <v>675974</v>
+      <c r="C194" s="26">
+        <v>27629</v>
+      </c>
+      <c r="D194" s="26">
+        <v>99853</v>
+      </c>
+      <c r="E194" s="26">
+        <v>208124</v>
+      </c>
+      <c r="F194" s="26">
+        <v>341328</v>
+      </c>
+      <c r="G194" s="26">
+        <v>520129</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>67</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B195" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C195">
-        <v>51296</v>
-      </c>
-      <c r="D195">
-        <v>185389</v>
-      </c>
-      <c r="E195">
-        <v>386405</v>
-      </c>
-      <c r="F195">
-        <v>633713</v>
-      </c>
-      <c r="G195">
-        <v>965677</v>
+      <c r="C195" s="26">
+        <v>39470</v>
+      </c>
+      <c r="D195" s="26">
+        <v>142648</v>
+      </c>
+      <c r="E195" s="26">
+        <v>297320</v>
+      </c>
+      <c r="F195" s="26">
+        <v>487612</v>
+      </c>
+      <c r="G195" s="26">
+        <v>743041</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>67</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B196" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C196">
-        <v>76944</v>
-      </c>
-      <c r="D196">
-        <v>278083</v>
-      </c>
-      <c r="E196">
-        <v>579608</v>
-      </c>
-      <c r="F196">
-        <v>950570</v>
-      </c>
-      <c r="G196">
-        <v>1448515</v>
+      <c r="C196" s="26">
+        <v>59205</v>
+      </c>
+      <c r="D196" s="26">
+        <v>213972</v>
+      </c>
+      <c r="E196" s="26">
+        <v>445980</v>
+      </c>
+      <c r="F196" s="26">
+        <v>731417</v>
+      </c>
+      <c r="G196" s="26">
+        <v>1114562</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>67</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B197" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C197">
-        <v>128240</v>
-      </c>
-      <c r="D197">
-        <v>463472</v>
-      </c>
-      <c r="E197">
-        <v>966014</v>
-      </c>
-      <c r="F197">
-        <v>1584283</v>
-      </c>
-      <c r="G197">
-        <v>2414192</v>
+      <c r="C197" s="26">
+        <v>98674</v>
+      </c>
+      <c r="D197" s="26">
+        <v>356619</v>
+      </c>
+      <c r="E197" s="26">
+        <v>743301</v>
+      </c>
+      <c r="F197" s="26">
+        <v>1219029</v>
+      </c>
+      <c r="G197" s="26">
+        <v>1857603</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B198" t="s">
         <v>165</v>
       </c>
       <c r="C198">
-        <v>899</v>
+        <v>35907</v>
       </c>
       <c r="D198">
-        <v>3678</v>
+        <v>129772</v>
       </c>
       <c r="E198">
-        <v>7544</v>
+        <v>270484</v>
       </c>
       <c r="F198">
-        <v>11905</v>
+        <v>443599</v>
       </c>
       <c r="G198">
-        <v>17378</v>
+        <v>675974</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
         <v>167</v>
       </c>
       <c r="C199">
-        <v>1285</v>
+        <v>51296</v>
       </c>
       <c r="D199">
-        <v>5254</v>
+        <v>185389</v>
       </c>
       <c r="E199">
-        <v>10778</v>
+        <v>386405</v>
       </c>
       <c r="F199">
-        <v>17007</v>
+        <v>633713</v>
       </c>
       <c r="G199">
-        <v>24825</v>
+        <v>965677</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B200" t="s">
         <v>168</v>
       </c>
       <c r="C200">
-        <v>1927</v>
+        <v>76944</v>
       </c>
       <c r="D200">
-        <v>7881</v>
+        <v>278083</v>
       </c>
       <c r="E200">
-        <v>16167</v>
+        <v>579608</v>
       </c>
       <c r="F200">
-        <v>25510</v>
+        <v>950570</v>
       </c>
       <c r="G200">
-        <v>37238</v>
+        <v>1448515</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B201" t="s">
         <v>169</v>
       </c>
       <c r="C201">
-        <v>3212</v>
+        <v>128240</v>
       </c>
       <c r="D201">
-        <v>13135</v>
+        <v>463472</v>
       </c>
       <c r="E201">
-        <v>26944</v>
+        <v>966014</v>
       </c>
       <c r="F201">
-        <v>42517</v>
+        <v>1584283</v>
       </c>
       <c r="G201">
-        <v>62063</v>
+        <v>2414192</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B202" t="s">
         <v>165</v>
       </c>
       <c r="C202">
-        <v>4078</v>
+        <v>899</v>
       </c>
       <c r="D202">
-        <v>10438</v>
+        <v>3678</v>
       </c>
       <c r="E202">
-        <v>22576</v>
+        <v>7544</v>
       </c>
       <c r="F202">
-        <v>37435</v>
+        <v>11905</v>
       </c>
       <c r="G202">
-        <v>65826</v>
+        <v>17378</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B203" t="s">
         <v>167</v>
       </c>
       <c r="C203">
-        <v>5826</v>
+        <v>1285</v>
       </c>
       <c r="D203">
-        <v>14912</v>
+        <v>5254</v>
       </c>
       <c r="E203">
-        <v>32251</v>
+        <v>10778</v>
       </c>
       <c r="F203">
-        <v>53478</v>
+        <v>17007</v>
       </c>
       <c r="G203">
-        <v>94038</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B204" t="s">
         <v>168</v>
       </c>
       <c r="C204">
-        <v>8739</v>
+        <v>1927</v>
       </c>
       <c r="D204">
-        <v>22368</v>
+        <v>7881</v>
       </c>
       <c r="E204">
-        <v>48377</v>
+        <v>16167</v>
       </c>
       <c r="F204">
-        <v>80218</v>
+        <v>25510</v>
       </c>
       <c r="G204">
-        <v>141056</v>
+        <v>37238</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B205" t="s">
         <v>169</v>
       </c>
       <c r="C205">
-        <v>14566</v>
+        <v>3212</v>
       </c>
       <c r="D205">
-        <v>37279</v>
+        <v>13135</v>
       </c>
       <c r="E205">
-        <v>80628</v>
+        <v>26944</v>
       </c>
       <c r="F205">
-        <v>133696</v>
+        <v>42517</v>
       </c>
       <c r="G205">
-        <v>235094</v>
+        <v>62063</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B206" t="s">
         <v>165</v>
       </c>
       <c r="C206">
-        <v>166</v>
+        <v>4078</v>
       </c>
       <c r="D206">
-        <v>997</v>
+        <v>10438</v>
       </c>
       <c r="E206">
-        <v>1614</v>
+        <v>22576</v>
       </c>
       <c r="F206">
-        <v>2152</v>
+        <v>37435</v>
       </c>
       <c r="G206">
-        <v>2796</v>
+        <v>65826</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B207" t="s">
         <v>167</v>
       </c>
       <c r="C207">
-        <v>238</v>
+        <v>5826</v>
       </c>
       <c r="D207">
-        <v>1425</v>
+        <v>14912</v>
       </c>
       <c r="E207">
-        <v>2306</v>
+        <v>32251</v>
       </c>
       <c r="F207">
-        <v>3074</v>
+        <v>53478</v>
       </c>
       <c r="G207">
-        <v>3994</v>
+        <v>94038</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B208" t="s">
         <v>168</v>
       </c>
       <c r="C208">
-        <v>356</v>
+        <v>8739</v>
       </c>
       <c r="D208">
-        <v>2137</v>
+        <v>22368</v>
       </c>
       <c r="E208">
-        <v>3459</v>
+        <v>48377</v>
       </c>
       <c r="F208">
-        <v>4611</v>
+        <v>80218</v>
       </c>
       <c r="G208">
-        <v>5991</v>
+        <v>141056</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B209" t="s">
         <v>169</v>
       </c>
       <c r="C209">
-        <v>594</v>
+        <v>14566</v>
       </c>
       <c r="D209">
-        <v>3562</v>
+        <v>37279</v>
       </c>
       <c r="E209">
-        <v>5766</v>
+        <v>80628</v>
       </c>
       <c r="F209">
-        <v>7684</v>
+        <v>133696</v>
       </c>
       <c r="G209">
-        <v>9985</v>
+        <v>235094</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B210" t="s">
         <v>165</v>
       </c>
       <c r="C210">
-        <v>32582</v>
+        <v>166</v>
       </c>
       <c r="D210">
-        <v>69107</v>
+        <v>997</v>
       </c>
       <c r="E210">
-        <v>152099</v>
+        <v>1614</v>
       </c>
       <c r="F210">
-        <v>250975</v>
+        <v>2152</v>
       </c>
       <c r="G210">
-        <v>451272</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B211" t="s">
         <v>167</v>
       </c>
       <c r="C211">
-        <v>46546</v>
+        <v>238</v>
       </c>
       <c r="D211">
-        <v>98724</v>
+        <v>1425</v>
       </c>
       <c r="E211">
-        <v>217284</v>
+        <v>2306</v>
       </c>
       <c r="F211">
-        <v>358536</v>
+        <v>3074</v>
       </c>
       <c r="G211">
-        <v>644674</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B212" t="s">
         <v>168</v>
       </c>
       <c r="C212">
-        <v>69820</v>
+        <v>356</v>
       </c>
       <c r="D212">
-        <v>148086</v>
+        <v>2137</v>
       </c>
       <c r="E212">
-        <v>325927</v>
+        <v>3459</v>
       </c>
       <c r="F212">
-        <v>537804</v>
+        <v>4611</v>
       </c>
       <c r="G212">
-        <v>967011</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B213" t="s">
         <v>169</v>
       </c>
       <c r="C213">
-        <v>116366</v>
+        <v>594</v>
       </c>
       <c r="D213">
-        <v>246809</v>
+        <v>3562</v>
       </c>
       <c r="E213">
-        <v>543211</v>
+        <v>5766</v>
       </c>
       <c r="F213">
-        <v>896340</v>
+        <v>7684</v>
       </c>
       <c r="G213">
-        <v>1611684</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B214" t="s">
         <v>165</v>
       </c>
       <c r="C214">
-        <v>61446</v>
+        <v>32582</v>
       </c>
       <c r="D214">
-        <v>167976</v>
+        <v>69107</v>
       </c>
       <c r="E214">
-        <v>360876</v>
+        <v>152099</v>
       </c>
       <c r="F214">
-        <v>599395</v>
+        <v>250975</v>
       </c>
       <c r="G214">
-        <v>1031043</v>
+        <v>451272</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B215" t="s">
         <v>167</v>
       </c>
       <c r="C215">
-        <v>87780</v>
+        <v>46546</v>
       </c>
       <c r="D215">
-        <v>239966</v>
+        <v>98724</v>
       </c>
       <c r="E215">
-        <v>515538</v>
+        <v>217284</v>
       </c>
       <c r="F215">
-        <v>856280</v>
+        <v>358536</v>
       </c>
       <c r="G215">
-        <v>1472920</v>
+        <v>644674</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B216" t="s">
         <v>168</v>
       </c>
       <c r="C216">
-        <v>131670</v>
+        <v>69820</v>
       </c>
       <c r="D216">
-        <v>359949</v>
+        <v>148086</v>
       </c>
       <c r="E216">
-        <v>773306</v>
+        <v>325927</v>
       </c>
       <c r="F216">
-        <v>1284420</v>
+        <v>537804</v>
       </c>
       <c r="G216">
-        <v>2209379</v>
+        <v>967011</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B217" t="s">
         <v>169</v>
       </c>
       <c r="C217">
-        <v>219450</v>
+        <v>116366</v>
       </c>
       <c r="D217">
-        <v>599914</v>
+        <v>246809</v>
       </c>
       <c r="E217">
-        <v>1288843</v>
+        <v>543211</v>
       </c>
       <c r="F217">
-        <v>2140698</v>
+        <v>896340</v>
       </c>
       <c r="G217">
-        <v>3682297</v>
+        <v>1611684</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B218" t="s">
         <v>165</v>
       </c>
       <c r="C218">
-        <v>18474</v>
+        <v>61446</v>
       </c>
       <c r="D218">
-        <v>54562</v>
+        <v>167976</v>
       </c>
       <c r="E218">
-        <v>116283</v>
+        <v>360876</v>
       </c>
       <c r="F218">
-        <v>193502</v>
+        <v>599395</v>
       </c>
       <c r="G218">
-        <v>322121</v>
+        <v>1031043</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B219" t="s">
         <v>167</v>
       </c>
       <c r="C219">
-        <v>26392</v>
+        <v>87780</v>
       </c>
       <c r="D219">
-        <v>77945</v>
+        <v>239966</v>
       </c>
       <c r="E219">
-        <v>166118</v>
+        <v>515538</v>
       </c>
       <c r="F219">
-        <v>276431</v>
+        <v>856280</v>
       </c>
       <c r="G219">
-        <v>460171</v>
+        <v>1472920</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B220" t="s">
         <v>168</v>
       </c>
       <c r="C220">
-        <v>39588</v>
+        <v>131670</v>
       </c>
       <c r="D220">
-        <v>116918</v>
+        <v>359949</v>
       </c>
       <c r="E220">
-        <v>249178</v>
+        <v>773306</v>
       </c>
       <c r="F220">
-        <v>414648</v>
+        <v>1284420</v>
       </c>
       <c r="G220">
-        <v>690259</v>
+        <v>2209379</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B221" t="s">
         <v>169</v>
       </c>
       <c r="C221">
-        <v>65980</v>
+        <v>219450</v>
       </c>
       <c r="D221">
-        <v>194863</v>
+        <v>599914</v>
       </c>
       <c r="E221">
-        <v>415296</v>
+        <v>1288843</v>
       </c>
       <c r="F221">
-        <v>691078</v>
+        <v>2140698</v>
       </c>
       <c r="G221">
-        <v>1150430</v>
+        <v>3682297</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B222" t="s">
         <v>165</v>
       </c>
       <c r="C222">
-        <v>39235</v>
+        <v>18474</v>
       </c>
       <c r="D222">
-        <v>141837</v>
+        <v>54562</v>
       </c>
       <c r="E222">
-        <v>295616</v>
+        <v>116283</v>
       </c>
       <c r="F222">
-        <v>484801</v>
+        <v>193502</v>
       </c>
       <c r="G222">
-        <v>738758</v>
+        <v>322121</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B223" t="s">
         <v>167</v>
       </c>
       <c r="C223">
-        <v>56050</v>
+        <v>26392</v>
       </c>
       <c r="D223">
-        <v>202624</v>
+        <v>77945</v>
       </c>
       <c r="E223">
-        <v>422308</v>
+        <v>166118</v>
       </c>
       <c r="F223">
-        <v>692573</v>
+        <v>276431</v>
       </c>
       <c r="G223">
-        <v>1055369</v>
+        <v>460171</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B224" t="s">
         <v>168</v>
       </c>
       <c r="C224">
-        <v>84075</v>
+        <v>39588</v>
       </c>
       <c r="D224">
-        <v>303935</v>
+        <v>116918</v>
       </c>
       <c r="E224">
-        <v>633462</v>
+        <v>249178</v>
       </c>
       <c r="F224">
-        <v>1038860</v>
+        <v>414648</v>
       </c>
       <c r="G224">
-        <v>1583053</v>
+        <v>690259</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B225" t="s">
         <v>169</v>
       </c>
       <c r="C225">
-        <v>140125</v>
+        <v>65980</v>
       </c>
       <c r="D225">
-        <v>506559</v>
+        <v>194863</v>
       </c>
       <c r="E225">
-        <v>1055770</v>
+        <v>415296</v>
       </c>
       <c r="F225">
-        <v>1731433</v>
+        <v>691078</v>
       </c>
       <c r="G225">
-        <v>2638422</v>
+        <v>1150430</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B226" t="s">
         <v>165</v>
       </c>
       <c r="C226">
-        <v>48877</v>
+        <v>39235</v>
       </c>
       <c r="D226">
-        <v>176625</v>
+        <v>141837</v>
       </c>
       <c r="E226">
-        <v>368154</v>
+        <v>295616</v>
       </c>
       <c r="F226">
-        <v>603784</v>
+        <v>484801</v>
       </c>
       <c r="G226">
-        <v>920048</v>
+        <v>738758</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B227" t="s">
         <v>167</v>
       </c>
       <c r="C227">
-        <v>69824</v>
+        <v>56050</v>
       </c>
       <c r="D227">
-        <v>252321</v>
+        <v>202624</v>
       </c>
       <c r="E227">
-        <v>525935</v>
+        <v>422308</v>
       </c>
       <c r="F227">
-        <v>862548</v>
+        <v>692573</v>
       </c>
       <c r="G227">
-        <v>1314354</v>
+        <v>1055369</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B228" t="s">
         <v>168</v>
       </c>
       <c r="C228">
-        <v>104736</v>
+        <v>84075</v>
       </c>
       <c r="D228">
-        <v>378482</v>
+        <v>303935</v>
       </c>
       <c r="E228">
-        <v>788902</v>
+        <v>633462</v>
       </c>
       <c r="F228">
-        <v>1293823</v>
+        <v>1038860</v>
       </c>
       <c r="G228">
-        <v>1971531</v>
+        <v>1583053</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>961</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
         <v>169</v>
       </c>
       <c r="C229">
-        <v>174560</v>
+        <v>140125</v>
       </c>
       <c r="D229">
-        <v>630803</v>
+        <v>506559</v>
       </c>
       <c r="E229">
-        <v>1314837</v>
+        <v>1055770</v>
       </c>
       <c r="F229">
-        <v>2156371</v>
+        <v>1731433</v>
       </c>
       <c r="G229">
-        <v>3285885</v>
+        <v>2638422</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>79</v>
+        <v>961</v>
       </c>
       <c r="B230" t="s">
         <v>165</v>
       </c>
       <c r="C230">
-        <v>23566</v>
+        <v>48877</v>
       </c>
       <c r="D230">
-        <v>110482</v>
+        <v>176625</v>
       </c>
       <c r="E230">
-        <v>220049</v>
+        <v>368154</v>
       </c>
       <c r="F230">
-        <v>326517</v>
+        <v>603784</v>
       </c>
       <c r="G230">
-        <v>458053</v>
+        <v>920048</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>79</v>
+        <v>961</v>
       </c>
       <c r="B231" t="s">
         <v>167</v>
       </c>
       <c r="C231">
-        <v>33666</v>
+        <v>69824</v>
       </c>
       <c r="D231">
-        <v>157832</v>
+        <v>252321</v>
       </c>
       <c r="E231">
-        <v>314355</v>
+        <v>525935</v>
       </c>
       <c r="F231">
-        <v>466452</v>
+        <v>862548</v>
       </c>
       <c r="G231">
-        <v>654361</v>
+        <v>1314354</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>79</v>
+        <v>961</v>
       </c>
       <c r="B232" t="s">
         <v>168</v>
       </c>
       <c r="C232">
-        <v>50499</v>
+        <v>104736</v>
       </c>
       <c r="D232">
-        <v>236748</v>
+        <v>378482</v>
       </c>
       <c r="E232">
-        <v>471533</v>
+        <v>788902</v>
       </c>
       <c r="F232">
-        <v>699679</v>
+        <v>1293823</v>
       </c>
       <c r="G232">
-        <v>981542</v>
+        <v>1971531</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>79</v>
+        <v>961</v>
       </c>
       <c r="B233" t="s">
         <v>169</v>
       </c>
       <c r="C233">
-        <v>84165</v>
+        <v>174560</v>
       </c>
       <c r="D233">
-        <v>394580</v>
+        <v>630803</v>
       </c>
       <c r="E233">
-        <v>785888</v>
+        <v>1314837</v>
       </c>
       <c r="F233">
-        <v>1166131</v>
+        <v>2156371</v>
       </c>
       <c r="G233">
-        <v>1635903</v>
+        <v>3285885</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>963</v>
+        <v>79</v>
       </c>
       <c r="B234" t="s">
         <v>165</v>
       </c>
       <c r="C234">
-        <v>63529</v>
+        <v>23566</v>
       </c>
       <c r="D234">
-        <v>229573</v>
+        <v>110482</v>
       </c>
       <c r="E234">
-        <v>478518</v>
+        <v>220049</v>
       </c>
       <c r="F234">
-        <v>784784</v>
+        <v>326517</v>
       </c>
       <c r="G234">
-        <v>1195856</v>
+        <v>458053</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>963</v>
+        <v>79</v>
       </c>
       <c r="B235" t="s">
         <v>167</v>
       </c>
       <c r="C235">
-        <v>90755</v>
+        <v>33666</v>
       </c>
       <c r="D235">
-        <v>327961</v>
+        <v>157832</v>
       </c>
       <c r="E235">
-        <v>683597</v>
+        <v>314355</v>
       </c>
       <c r="F235">
-        <v>1121120</v>
+        <v>466452</v>
       </c>
       <c r="G235">
-        <v>1708366</v>
+        <v>654361</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>963</v>
+        <v>79</v>
       </c>
       <c r="B236" t="s">
         <v>168</v>
       </c>
       <c r="C236">
-        <v>136133</v>
+        <v>50499</v>
       </c>
       <c r="D236">
-        <v>491941</v>
+        <v>236748</v>
       </c>
       <c r="E236">
-        <v>1025396</v>
+        <v>471533</v>
       </c>
       <c r="F236">
-        <v>1681679</v>
+        <v>699679</v>
       </c>
       <c r="G236">
-        <v>2562548</v>
+        <v>981542</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>963</v>
+        <v>79</v>
       </c>
       <c r="B237" t="s">
         <v>169</v>
       </c>
       <c r="C237">
-        <v>226889</v>
+        <v>84165</v>
       </c>
       <c r="D237">
-        <v>819902</v>
+        <v>394580</v>
       </c>
       <c r="E237">
-        <v>1708994</v>
+        <v>785888</v>
       </c>
       <c r="F237">
-        <v>2802799</v>
+        <v>1166131</v>
       </c>
       <c r="G237">
-        <v>4270914</v>
+        <v>1635903</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>81</v>
+        <v>963</v>
       </c>
       <c r="B238" t="s">
         <v>165</v>
       </c>
       <c r="C238">
-        <v>44852</v>
+        <v>63529</v>
       </c>
       <c r="D238">
-        <v>183516</v>
+        <v>229573</v>
       </c>
       <c r="E238">
-        <v>376515</v>
+        <v>478518</v>
       </c>
       <c r="F238">
-        <v>594078</v>
+        <v>784784</v>
       </c>
       <c r="G238">
-        <v>867204</v>
+        <v>1195856</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>81</v>
+        <v>963</v>
       </c>
       <c r="B239" t="s">
         <v>167</v>
       </c>
       <c r="C239">
-        <v>64074</v>
+        <v>90755</v>
       </c>
       <c r="D239">
-        <v>262165</v>
+        <v>327961</v>
       </c>
       <c r="E239">
-        <v>537878</v>
+        <v>683597</v>
       </c>
       <c r="F239">
-        <v>848683</v>
+        <v>1121120</v>
       </c>
       <c r="G239">
-        <v>1238863</v>
+        <v>1708366</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>81</v>
+        <v>963</v>
       </c>
       <c r="B240" t="s">
         <v>168</v>
       </c>
       <c r="C240">
-        <v>96110</v>
+        <v>136133</v>
       </c>
       <c r="D240">
-        <v>393248</v>
+        <v>491941</v>
       </c>
       <c r="E240">
-        <v>806817</v>
+        <v>1025396</v>
       </c>
       <c r="F240">
-        <v>1273025</v>
+        <v>1681679</v>
       </c>
       <c r="G240">
-        <v>1858294</v>
+        <v>2562548</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>81</v>
+        <v>963</v>
       </c>
       <c r="B241" t="s">
         <v>169</v>
       </c>
       <c r="C241">
-        <v>160184</v>
+        <v>226889</v>
       </c>
       <c r="D241">
-        <v>655413</v>
+        <v>819902</v>
       </c>
       <c r="E241">
-        <v>1344696</v>
+        <v>1708994</v>
       </c>
       <c r="F241">
-        <v>2121708</v>
+        <v>2802799</v>
       </c>
       <c r="G241">
-        <v>3097157</v>
+        <v>4270914</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B242" t="s">
         <v>165</v>
       </c>
       <c r="C242">
-        <v>99261</v>
+        <v>44852</v>
       </c>
       <c r="D242">
-        <v>358739</v>
+        <v>183516</v>
       </c>
       <c r="E242">
-        <v>747719</v>
+        <v>376515</v>
       </c>
       <c r="F242">
-        <v>1226276</v>
+        <v>594078</v>
       </c>
       <c r="G242">
-        <v>1868646</v>
+        <v>867204</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B243" t="s">
         <v>167</v>
       </c>
       <c r="C243">
-        <v>141802</v>
+        <v>64074</v>
       </c>
       <c r="D243">
-        <v>512485</v>
+        <v>262165</v>
       </c>
       <c r="E243">
-        <v>1068171</v>
+        <v>537878</v>
       </c>
       <c r="F243">
-        <v>1751822</v>
+        <v>848683</v>
       </c>
       <c r="G243">
-        <v>2669495</v>
+        <v>1238863</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B244" t="s">
         <v>168</v>
       </c>
       <c r="C244">
-        <v>212702</v>
+        <v>96110</v>
       </c>
       <c r="D244">
-        <v>768727</v>
+        <v>393248</v>
       </c>
       <c r="E244">
-        <v>1602256</v>
+        <v>806817</v>
       </c>
       <c r="F244">
-        <v>2627734</v>
+        <v>1273025</v>
       </c>
       <c r="G244">
-        <v>4004242</v>
+        <v>1858294</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B245" t="s">
         <v>169</v>
       </c>
       <c r="C245">
+        <v>160184</v>
+      </c>
+      <c r="D245">
+        <v>655413</v>
+      </c>
+      <c r="E245">
+        <v>1344696</v>
+      </c>
+      <c r="F245">
+        <v>2121708</v>
+      </c>
+      <c r="G245">
+        <v>3097157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>83</v>
+      </c>
+      <c r="B246" t="s">
+        <v>165</v>
+      </c>
+      <c r="C246">
+        <v>99261</v>
+      </c>
+      <c r="D246">
+        <v>358739</v>
+      </c>
+      <c r="E246">
+        <v>747719</v>
+      </c>
+      <c r="F246">
+        <v>1226276</v>
+      </c>
+      <c r="G246">
+        <v>1868646</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>83</v>
+      </c>
+      <c r="B247" t="s">
+        <v>167</v>
+      </c>
+      <c r="C247">
+        <v>141802</v>
+      </c>
+      <c r="D247">
+        <v>512485</v>
+      </c>
+      <c r="E247">
+        <v>1068171</v>
+      </c>
+      <c r="F247">
+        <v>1751822</v>
+      </c>
+      <c r="G247">
+        <v>2669495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>83</v>
+      </c>
+      <c r="B248" t="s">
+        <v>168</v>
+      </c>
+      <c r="C248">
+        <v>212702</v>
+      </c>
+      <c r="D248">
+        <v>768727</v>
+      </c>
+      <c r="E248">
+        <v>1602256</v>
+      </c>
+      <c r="F248">
+        <v>2627734</v>
+      </c>
+      <c r="G248">
+        <v>4004242</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>83</v>
+      </c>
+      <c r="B249" t="s">
+        <v>169</v>
+      </c>
+      <c r="C249">
         <v>354504</v>
       </c>
-      <c r="D245">
+      <c r="D249">
         <v>1281212</v>
       </c>
-      <c r="E245">
+      <c r="E249">
         <v>2670427</v>
       </c>
-      <c r="F245">
+      <c r="F249">
         <v>4379556</v>
       </c>
-      <c r="G245">
+      <c r="G249">
         <v>6673737</v>
       </c>
     </row>
@@ -50285,10 +50970,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50712,17 +51397,17 @@
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B50" s="40" t="s">
         <v>406</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>406</v>
@@ -50731,7 +51416,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>406</v>
@@ -50740,7 +51425,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>406</v>
@@ -50749,16 +51434,16 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>408</v>
@@ -50767,7 +51452,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>408</v>
@@ -50776,7 +51461,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>408</v>
@@ -50785,43 +51470,43 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>406</v>
@@ -50829,9 +51514,18 @@
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>406</v>
+      </c>
       <c r="C63" s="15"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -57016,8 +57710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\COLCIENCIAS\2021\san andres\INICIO PROYECTO\Insumos Plataforma\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA68A9-73CD-4ED8-9F8C-5E0D94D80583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2EC073-6B86-43F9-93DC-C7F6E5F2A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="210" activeTab="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -3606,7 +3606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3663,9 +3663,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -12749,15 +12747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -12787,7 +12785,7 @@
         <v>177</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1.5</v>
@@ -23737,7 +23735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-C700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -28004,19 +28002,19 @@
       <c r="A49" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="C49" s="32">
-        <v>10</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="C49" s="26">
+        <v>10</v>
+      </c>
+      <c r="D49" s="26">
         <v>20</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="32">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -28024,17 +28022,17 @@
       <c r="A50" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="26">
         <v>20</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="32" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="32">
         <v>1.25</v>
       </c>
     </row>
@@ -28042,19 +28040,19 @@
       <c r="A51" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D51" s="32">
-        <v>10</v>
-      </c>
-      <c r="E51" s="32" t="s">
+      <c r="D51" s="26">
+        <v>10</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="32">
         <v>0.9</v>
       </c>
     </row>
@@ -28062,19 +28060,19 @@
       <c r="A52" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="C52" s="32">
-        <v>10</v>
-      </c>
-      <c r="D52" s="32">
+      <c r="C52" s="26">
+        <v>10</v>
+      </c>
+      <c r="D52" s="26">
         <v>20</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F52" s="32">
         <v>1</v>
       </c>
     </row>
@@ -28082,17 +28080,17 @@
       <c r="A53" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="33">
         <v>20</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35" t="s">
+      <c r="D53" s="34"/>
+      <c r="E53" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="35">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -34581,7 +34579,7 @@
       <c r="J39" s="26">
         <v>55</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="36">
         <v>28940</v>
       </c>
     </row>
@@ -51397,10 +51395,10 @@
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="37" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="38" t="s">
         <v>406</v>
       </c>
       <c r="C50" s="15"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2EC073-6B86-43F9-93DC-C7F6E5F2A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED527ED-FE15-40F7-8F56-793DE4835C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -12747,7 +12747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -14440,14 +14440,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
@@ -16394,14 +16394,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -19784,7 +19784,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="130.7109375" customWidth="1"/>
     <col min="8" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -22137,7 +22142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
@@ -25405,8 +25410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25591,7 +25596,7 @@
         <v>390</v>
       </c>
       <c r="B13">
-        <v>4.5400000000000003E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="C13">
         <v>1.087</v>
@@ -43022,14 +43027,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DD3C9-B330-4E74-8D65-7C1404034804}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43612,8 +43617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1590256-6A55-46CA-A90D-5C856B0A45CE}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED527ED-FE15-40F7-8F56-793DE4835C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A762A7DD-CEE2-4087-A1FB-A677693F4068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25411,7 +25411,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25582,13 +25582,13 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>7.7999999999999996E-3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.087</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -25596,13 +25596,13 @@
         <v>390</v>
       </c>
       <c r="B13">
-        <v>7.7999999999999996E-3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1.087</v>
+        <v>3</v>
       </c>
       <c r="D13" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A762A7DD-CEE2-4087-A1FB-A677693F4068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF73E5-8586-4F6D-9F24-AB9A5B97F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25411,7 +25411,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25582,13 +25582,13 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1.087</v>
       </c>
       <c r="D12" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -25596,13 +25596,13 @@
         <v>390</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1.087</v>
       </c>
       <c r="D13" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
